--- a/evaluations/MMLU_Anatomy/zeroshot-COT/gaokerena-r1.0/gao_experiment_no2.xlsx
+++ b/evaluations/MMLU_Anatomy/zeroshot-COT/gaokerena-r1.0/gao_experiment_no2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29401"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCE43890-FEF8-4F1B-8B0D-DCBF0D8035AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{164BD9E5-18FF-4DB1-BD11-2776B44F6EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="550">
   <si>
     <t>Question</t>
   </si>
@@ -200,9 +200,6 @@
 بنابراین، گزینه صحیح [B] گلومرول می باشد که مجموعه ای از مویرگ های خونی موجود در هر نفرون کلیه را توصیف می کند.</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>بیماران دچار شکستگی گردن با آسیب به نخاع در سطح مهره ششم گردنی :</t>
   </si>
   <si>
@@ -427,9 +424,6 @@
 - **[C] : اطلاعات حس عمقی (پروپریوسپتیو) توسط عصب کوردا تیمپانی و اعصاب تمپورال عمیق منتقل می‌شود** - این گزینه نادرست است. اطلاعات حس عمقی مرتبط با TMJ توسط **اعصاب ماستریک و اوریکولوتمپورال** منتقل می‌شود، نه کوردا تیمپانی و اعصاب تمپورال عمیق.
 - **[D] : اطلاعات حس عمقی (پروپریوسپتیو) توسط اعصاب ماستریک و اوریکولوتمپورال منتقل می‌شود** - این گزینه **صحیح** است و نشان‌دهنده عملکرد واقعی اعصاب در ارتباط با مفصل گیجگاهی-فکی می‌باشد.
 ## بنابراین، پاسخ صحیح **گزینه D** است.</t>
-  </si>
-  <si>
-    <t>A2</t>
   </si>
   <si>
     <t>معاینه لارنگوسکوپی تارهای صوتی پس از آسیب مشکوک عصب مکرر حنجره معمولاً نشان می دهد که تار صوتی در سمت آسیب دیده منقبض شده و در یک موقعیت میانی بین اداکشن و ابداکشن قرار دارد. این موضوع به چه دلیلی است؟</t>
@@ -578,9 +572,6 @@
 با توجه به تحلیل بالا، پاسخ صحیح **گزینه D: بیضه‌ها** است.</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>خون اکسیژن دار توسط کدام یک از ساختارهای زیر به قلب منتقل می شود؟</t>
   </si>
   <si>
@@ -605,9 +596,6 @@
 3. **ویرید اجوف تحتانی (گزینه [C])**: ورید اجوف تحتانی خون کم‌اکسیژن را از قسمت زیرین بدن به سمت قلب بازمی‌گرداند. اما خون اکسیژن‌دار از ریه‌ها می‌آید و نه از این ورید.
 4. **ویریدهای ریوی (گزینه [D])**: وریدهای ریوی خون کم‌اکسیژن را از قلب (به‌طور خاص از بطن‌ها) به ریه‌ها می‌فرستند تا اکسیژن‌دار شوند. وریدهای ریوی پس از دریافت خون اکسیژن‌دار از ریه‌ها، آن را دوباره به آئورت بازمی‌گردانند، که پس از آن به قلب می‌رسد.
 بنابراین، با توجه به زنجیره افکار بالا، پاسخ صحیح گزینه [D] : **ویریدهای ریوی** است.</t>
-  </si>
-  <si>
-    <t>A4</t>
   </si>
   <si>
     <t>کدام یک از موارد زیر اجازه می دهد هوا به ریه ها منتقل شود؟</t>
@@ -635,9 +623,6 @@
 3. **نای (برونکوس)**: این شاخه‌ها به نای‌ها (برونکوس) منتهی می‌شوند که به نای بزرگ (برونکوس اصلی) ختم می‌گردند.
 4. **آئورت و پانکراس**: آئورت، شریان اصلی قلب است و پانکراس یک اندام گوارشی است. هیچ‌کدام از این دو مستقیمی در انتقال هوا به ریه‌ها دخیل نیستند.
 بنابراین، گزینه صحیح که اجازه می‌دهد هوا به ریه‌ها منتقل شود، **گزینه [C] : نای** است. نای‌ها نقش کلیدی در هدایت هوا به داخل ریه‌ها و به جریان انداختن آن در دیواره‌های ریه برای تبادل گازها دارند.</t>
-  </si>
-  <si>
-    <t>A5</t>
   </si>
   <si>
     <t>گره سینوسی دهلیزی در کجا قرار دارد؟</t>
@@ -666,9 +651,6 @@
 - **گزینه [C] : در دیواره بالایی دهلیز راست** - این گزینه به مکان گره سینوسی دهلیزی نزدیک است، اما دقیقاً محل آن نیست. گره سینوسی در قسمت میانی تا پایین دیواره داخلی دهلیز راست واقع شده است.
 - **گزینه [D] : در دیواره بالایی بطن چپ** - این کاملاً اشتباه است، زیرا بطن چپ فاقد گره سینوسی است و این ساختار منحصر به دهلیز راست است.
 بنابراین، با توجه به اطلاعات ارائه شده، پاسخ صحیح **گزینه [C] : در دیواره بالایی دهلیز راست** است.</t>
-  </si>
-  <si>
-    <t>A6</t>
   </si>
   <si>
     <t>در رابطه با دنده، عصب بین دنده ای مربوطه در کجا قرار دارد؟</t>
@@ -780,9 +762,6 @@
 * **[C] فعالیت خود را در 7 سالگی متوقف می کند.** این نادرست است. غضروف‌ها در طول عمر ما رشد و تغییر می‌کنند، و مفصل اسفنو-اکسیپیتال نیز فعالیت خود را تداوم می‌دهد.
 * **[D] می تواند در بیماران مبتلا به آکرومگالی دوباره فعال شود.** آکرومگالی  افزایش غیرطبیعی حجم غضروف‌ها است که می‌تواند بر مفاصل مختلفی از جمله مفصل اسفنو-اکسیپیتال تأثیر بگذارد، اما فعال شدن مجدد آن با بیماری ارتباط ندارد.
 **بنابراین، پاسخ صحیح گزینه [B] بر موقعیت اسکلت صورت تأثیر می گذارد است.**</t>
-  </si>
-  <si>
-    <t>A7</t>
   </si>
   <si>
     <t>کدام یک از مواد زیر به مقدار بیشتری در هوای بازدم یافت می شود؟</t>
@@ -900,9 +879,6 @@
 با توجه به این تحلیل، **طحال (گزینه C)** بیشترین احتمال را برای درگیر بودن در اثر ضربه شدید به سمت چپ بالای شکم دارد.</t>
   </si>
   <si>
-    <t>A8</t>
-  </si>
-  <si>
     <t>کدام عبارت در مورد گره دهلیزی بطنی درست است؟</t>
   </si>
   <si>
@@ -955,9 +931,6 @@
 3. **فلکشن (Flexion)**: فلکشن حرکت خم شدن یک مفصل است. وقتی ساعد را به سمت بدن خم می‌کنیم، فلکشن اتفاق می‌افتد. این بهترین توصیف برای حرکت مورد نظر است.
 4. **پرونیشن (Pronation)**: پرونیشن به چرخش مچ دست یا پاها به سمت پایین اشاره دارد. این اصطلاح با خم شدن ساعد به سمت بدن ارتباطی ندارد.
 بنابراین، گزینه **C : فلکشن** بهترین توصیف برای حرکت خم شدن ساعد به سمت بدن است.</t>
-  </si>
-  <si>
-    <t>A9</t>
   </si>
   <si>
     <t>در مرحله حلقی بلع از ورود غذا به حنجره توسط ... جلوگیری می شود.</t>
@@ -1018,9 +991,6 @@
 بنابراین، با توجه به توضیحات بالا، پاسخ صحیح **گزینه [B] : دوازدهه** است.</t>
   </si>
   <si>
-    <t>Ax</t>
-  </si>
-  <si>
     <t>در کدام یک از وضعیت های زیر بیمار به صورت رو به پایین دراز می کشد؟</t>
   </si>
   <si>
@@ -1136,9 +1106,6 @@
 بنابراین، بر اساس توضیحات فوق، **طحال ([D])** تنها گزینه‌ای است که هم به عنوان یک اندام لنفوئیدی و هم به عنوان مخزن گلبول‌های قرمز و تصفیه‌کننده خون شناخته می‌شود.</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
     <t>کدام یک از حفره های زیر توسط دیافراگم جدا می شود؟</t>
   </si>
   <si>
@@ -1166,9 +1133,6 @@
    - **حفره شکمی (Abdominal Cavity):** حفره‌ای در بخش زیرین قفسه سینه و بالای لگن است که احشاء شکمی مانند معده، روده‌ها و کبد را در بر می‌گیرد.
 4. **انتخاب پاسخ:** از بین گزینه‌های ارائه‌شده، گزینه **C: سینه‌ای و شکمی** صحیح است، زیرا دیافراگم این دو حفره را از هم جدا می‌کند.
 بنابراین، پاسخ صحیح **[C] : سینه ای و شکمی** است.</t>
-  </si>
-  <si>
-    <t>B2</t>
   </si>
   <si>
     <t>دیواره برونشیول ها حاوی چیست؟</t>
@@ -1227,9 +1191,6 @@
 بنابراین، بر اساس توضیحات بالا، **گزینه C: کبد** پاسخ صحیح است، زیرا مستقیماً مسئول خارج کردن بیلی روبین از خون، ساخت پروتئین‌های پلاسما، و نقش داشتن در تولید پروترومبین و فیبرینوژن است.</t>
   </si>
   <si>
-    <t>B3</t>
-  </si>
-  <si>
     <t>مشخصه کدام یک از شرایط زیر نارسایی اسفنکتر مری است؟</t>
   </si>
   <si>
@@ -1256,9 +1217,6 @@
 * **[D] تنگی پیلور:** تنگی پیلور  تنگی در دهانه معده است که می‌تواند جریان غذا را به معده مختل کند. این وضعیت ارتباط مستقیمی با نارسایی اسفنکتر مری ندارد.
 ## نتیجه
 بنابراین، پاسخ صحیح **C - بیماری بازگشت اسید به مری** است، زیرا این بیماری یکی از دلایل اصلی نارسایی اسفنکتر مری است.</t>
-  </si>
-  <si>
-    <t>B4</t>
   </si>
   <si>
     <t>ماهیچه های کام نرم توسط شاخه هایی از... عصب دهی می شوند</t>
@@ -1321,9 +1279,6 @@
 پاسخ: [B] استخوان ران</t>
   </si>
   <si>
-    <t>B5</t>
-  </si>
-  <si>
     <t>بلوک عصب آلوئول تحتانی موفق باعث بی حسی ...می شود</t>
   </si>
   <si>
@@ -1355,9 +1310,6 @@
 با توجه به توضیحات بالا، گزینه صحیح **[C] لب پایین، دندان‌های فک پایین و لثه‌های لبی دندان‌های قدامی فک پایین** است، زیرا این گزینه به طور کامل محدوده بی‌حسی ایجاد شده توسط بلوک عصب آلوئول تحتانی را توصیف می‌کند.</t>
   </si>
   <si>
-    <t>B6</t>
-  </si>
-  <si>
     <t>مخاط حنجره فوقانی توسط چه عصبی عصب دهی می شود؟</t>
   </si>
   <si>
@@ -1387,9 +1339,6 @@
    - [D] عصب خارجی حنجره که بخش آوران رفلکس سرفه است. (غلط)
 ## پاسخ: 
 [A] : عصب داخلی حنجره که بخش آوران رفلکس سرفه است.</t>
-  </si>
-  <si>
-    <t>B7</t>
   </si>
   <si>
     <t>استخوان های اسکلت صورت در ابتدا توسط ... تشکیل می شوند و از ... پیروی می کنند.</t>
@@ -1454,9 +1403,6 @@
 پس پاسخ صحیح **گزینه [B] : ساق پا** است.</t>
   </si>
   <si>
-    <t>B8</t>
-  </si>
-  <si>
     <t>کدام سلول های خون هسته ندارند؟</t>
   </si>
   <si>
@@ -1482,9 +1428,6 @@
 - [C] اریتروسیت: گلبول‌های قرمز یا اریتروسیت‌ها فاقد هسته هستند و مسئول حمل اکسیژن در خون می‌باشند.
 - [D] بازوفیل: بازوفیل‌ها گلبول‌های سفید خون با هسته هستند که در پاسخ به عفونت‌های باکتریایی و التهاب فعال می‌شوند.
 بنابراین، تنها گزینه‌ای که سلول‌های خون بدون هسته دارد، **گزینه C: اریتروسیت** است.</t>
-  </si>
-  <si>
-    <t>B9</t>
   </si>
   <si>
     <t>درز تاجی .... را به هم متصل می کند</t>
@@ -1538,9 +1481,6 @@
    - در ادامه، به **غضروف کریکوئید** (یا غضروف لاتیرال) می‌رسیم که در بین استخوان‌های ترقوه و اولین دنده قرار دارد.
 3. **ترتیب صحیح**: با توجه به اینکه لمس کردن از بالا به پایین است، ترتیب صحیح باید به صورت استخوان هیوئید، غضروف تیروئید، غضروف کریکوئید باشد.
 بنابراین، پاسخ صحیح گزینه **[C] : استخوان هیوئید، غضروف تیروئید، غضروف کریکوئید.** است.</t>
-  </si>
-  <si>
-    <t>Bx</t>
   </si>
   <si>
     <t>کدام یک از ساختارهای استخوانی زیر در بیمار زنده قابل لمس است؟</t>
@@ -2190,9 +2130,6 @@
 بنابراین، پاسخ صحیح گزینه [A] استیل کولین است.</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>در نخاع، اجسام سلولی نورون حرکتی دردرون ... قرار دارند</t>
   </si>
   <si>
@@ -2370,9 +2307,6 @@
 با در نظر گرفتن این موارد، **گزینه [A]** که بیان می‌کند احتمال بیشتری وجود دارد قطعه دندان به ریه راست برود، منطقی‌ترین پاسخ است. بنابراین، انتخاب نهایی من **گزینه A** است.</t>
   </si>
   <si>
-    <t>C2</t>
-  </si>
-  <si>
     <t>کلسیم، پتاسیم و سدیم در کدام یک از موارد زیر طبقه بندی می شوند؟</t>
   </si>
   <si>
@@ -2397,9 +2331,6 @@
 3. **الکترولیت‌ها (گزینه C)**: الکترولیت‌ها یون‌هایی هستند که برای بسیاری از فرآیندهای فیزیولوژیکی در بدن حیاتی هستند. کلسیم (Ca²⁺)، پتاسیم (K⁺) و سدیم (Na⁺) همگی الکترولیت‌ها هستند که نقش مهمی در تنظیم فشار خون، انتقال سیگنال‌های عصبی، انقباض عضلات و بسیاری از عملکردهای دیگر بدن ایفا می‌کنند.
 4. **استرون‌ها (گزینه D)**: استروژن‌ها گروهی از هورمون‌های استروئیدی هستند که عمدتاً در زنان تولید می‌شوند و نقش کلیدی در چرخه قاعدگی و بارداری دارند. کلسیم، پتاسیم و سدیم با استرون‌ها ارتباطی ندارند.
 با توجه به این تحلیل، گزینه صحیح **C** است: **الکترولیت‌ها**.</t>
-  </si>
-  <si>
-    <t>C3</t>
   </si>
   <si>
     <t>نورآدرنالین ناقل عصبی بین کدام یک از دو ساختار زیر است؟</t>
@@ -2432,9 +2363,6 @@
 بنابراین، نورآدرنالین بین نورون‌های پس گانگلیونی سمپاتیک و اندام‌های هدف منتقل می‌شود.</t>
   </si>
   <si>
-    <t>C4</t>
-  </si>
-  <si>
     <t>کدام یک از موارد زیر غدد مولد مخاط در هر طرف دهانه واژن قرار دارند؟</t>
   </si>
   <si>
@@ -2458,9 +2386,6 @@
 1. **غدد بارتولین (Option B):** این غدد دو جفت غده کوچک هستند که در هر طرف دهانه واژن قرار دارند. وظیفه اصلی آنها ترشح مخاط و روان کردن واژن است. این غدد در طول رابطه جنسی و هنگام تحریک جنسی فعال می‌شوند. این اطلاعات مستقیماً به پرسش مربوط می‌شود، بنابراین گزینه B صحیح به نظر می‌رسد.
 2. **آدرنال (Option A)، بولبورترال (Option C) و جسم زرد (Option D):** این ساختارها به ترتیب با غدد فوق کلیوی، غدد پاتور (قربانی) و تخمدان مرتبط هستند و مستقیماً در ارتباط با دستگاه تناسلی زنانه نیستند.
 با توجه به توضیحات بالا، **گزینه B: بارتولین** پاسخ صحیح است. این غدد به طور خاص در هر طرف دهانه واژن قرار دارند و وظیفه تولید مخاط را بر عهده دارند.</t>
-  </si>
-  <si>
-    <t>C5</t>
   </si>
   <si>
     <t>در صورت نیاز به باز شدن اضطراری در راه هوایی، غشای کریکوتیروئید باید.... فورا سوراخ شود</t>
@@ -2496,9 +2421,6 @@
 با توجه به تحلیل بالا، پاسخ صحیح گزینه [B] است: **پایین تر از غضروف تیروئید**.</t>
   </si>
   <si>
-    <t>C6</t>
-  </si>
-  <si>
     <t>مایع مغزی نخاعی در اطراف مغز بین....گردش می کند</t>
   </si>
   <si>
@@ -2550,9 +2472,6 @@
 [C] حنجره: حنجره (یا لارنکس) بخشی از راه هوایی است که صدا ایجاد می‌کند. اگرچه در بلع نقش دارد، اما به تنهایی راه هوایی تحتانی را نمی‌بندد.
 [D] زبان کوچک: زبان کوچک نقش مهمی در بلع غذا دارد، اما در بسته شدن راه هوایی تحتانی دخیل نیست.
 بنابراین، با توجه به توضیحات بالا، گزینه صحیح **[B] اپی‌گلوت** است که در هنگام بلع راه هوایی تحتانی را می‌بندد و می‌بندد.</t>
-  </si>
-  <si>
-    <t>C7</t>
   </si>
   <si>
     <t>کدام دیواره اربیتال بیشتر احتمال دارد در شکستگی 'بلو-اوت' (شکستگی انفجاری) دچار فروپاشی می شود؟</t>
@@ -2623,9 +2542,6 @@
 بنابراین، پاسخ صحیح **گزینه [C] : کف اربیت، دندان‌های خلفی فوقانی و حفره زیر گیجگاهی** است.</t>
   </si>
   <si>
-    <t>C8</t>
-  </si>
-  <si>
     <t>کدام یک از عبارات زیر در مورد رشد فک بالا پس از زایمان صحیح است؟</t>
   </si>
   <si>
@@ -2741,9 +2657,6 @@
 بنابراین، بر اساس توضیحات فوق، **کلاژن (گزینه [A])** تنها گزینه‌ای است که یک پروتئین ساختاری فیبری است که در درم یافت می‌شود.</t>
   </si>
   <si>
-    <t>C9</t>
-  </si>
-  <si>
     <t>بالا آمدن قفسه های کام به دلیل اثر....است</t>
   </si>
   <si>
@@ -2833,9 +2746,6 @@
 بنابراین، گزینه صحیح **گزینه [B]** است.</t>
   </si>
   <si>
-    <t>Cx</t>
-  </si>
-  <si>
     <t>عروق کرونر</t>
   </si>
   <si>
@@ -2860,9 +2770,6 @@
 - **گزینه [C]:** این گزینه با مفهوم معمول عروق کرونر در تضاد است. عروق کرونر از آئورت صعودی، نه قوس آئورت، منشعب می‌شوند.
 - **گزینه [D]:** این گزینه درست است. عروق کرونر از آئورت صعودی منشعب می‌شوند و در طول سیستول (مرحله فعال و پمپاژ قلب) پر می‌شوند. در این زمان، قلب خون اکسیژن‌دار را از رگ‌های خونی دریافت می‌کند و آن را به بدن پمپاژ می‌کند.
 بنابراین، پاسخ صحیح **گزینه [D]** است: *از آئورت صعودی ایجاد می‌شود و در طول سیستول پر می‌شود.*</t>
-  </si>
-  <si>
-    <t>D1</t>
   </si>
   <si>
     <t>کدام عضله در حین حرکت جانبی سمت راست فک پایین فعال تر است؟</t>
@@ -3131,9 +3038,6 @@
 بنابراین، پاسخ صحیح **[C] : شریان ریوی به آئورت** است.</t>
   </si>
   <si>
-    <t>D2</t>
-  </si>
-  <si>
     <t>کدام یک از استخوان های زیر در اثر استخوان سازی داخل غضروفی رشد می کند؟</t>
   </si>
   <si>
@@ -3191,9 +3095,6 @@
 با توجه به زنجیره افکار بالا، گزینه صحیح **[A]** است: کراتینه شده و دارای زیرمخاط و غدد بزاقی جزئی در سمت خلفی است.</t>
   </si>
   <si>
-    <t>D3</t>
-  </si>
-  <si>
     <t>سر دنده ششم با... مفصل می شود</t>
   </si>
   <si>
@@ -3251,9 +3152,6 @@
 بنابراین، زنجیره فکر کردن ما به این نتیجه رسید که طحال در زیر دیافراگم و در ربع فوقانی سمت چپ حفره شکمی قرار دارد.</t>
   </si>
   <si>
-    <t>D4</t>
-  </si>
-  <si>
     <t>پایانه های عصبی حس عمقی در مفاصل سینوویال در داخل چه چیزی قرار دارند؟</t>
   </si>
   <si>
@@ -3311,9 +3209,6 @@
 پاسخ: [D] تنفس</t>
   </si>
   <si>
-    <t>D5</t>
-  </si>
-  <si>
     <t>بیمار پس از ضربه به سر بستری می شود و به سرعت در کما فرو می رود. اسکن ام آر آی خونریزی خارج از سخت شامه را نشان می دهد، زیرا خون خارج شده بین ... تشخیص داده می شود.</t>
   </si>
   <si>
@@ -3399,9 +3294,6 @@
 بنابراین، پاسخ مناسب **گزینه C** است: **سوراخ بیضی شکل، گرد و خاردار**. (با توجه به جزئیات بیشتر که در گزینه ارائه شده، این توصیف به طور دقیق‌تر به سوراخ مورد نظر اشاره دارد).</t>
   </si>
   <si>
-    <t>D6</t>
-  </si>
-  <si>
     <t>کدام یک از موارد زیر اختلالی است که با دوره های غیرقابل کنترل به خواب رفتن در طول روز مشخص می شود؟</t>
   </si>
   <si>
@@ -3429,9 +3321,6 @@
 بنابراین، بر اساس توضیحات بالا، پاسخ صحیح **گزینه D: نارکولپسی** است.</t>
   </si>
   <si>
-    <t>D7</t>
-  </si>
-  <si>
     <t>کدام یک از موارد زیر اجازه تبادل گاز در ریه ها را می دهد؟</t>
   </si>
   <si>
@@ -3457,9 +3346,6 @@
 - [C] برونشیل‌ها: برونشیل‌ها نیز مجاری هوایی هستند و در فیلتر کردن و گرم کردن هوا نقش دارند، اما در تبادل گاز مستقیم دخیل نیستند.
 - [D] مویرگ‌ها: مویرگ‌ها اگرچه نقش مهمی در گردش خون و تبادل مواد مغذی دارند، اما تبادل گاز در آلوئول‌ها و نه در مویرگ‌ها انجام می‌شود.
 بنابراین، پاسخ صحیح گزینه [A] آلوئول است.</t>
-  </si>
-  <si>
-    <t>D8</t>
   </si>
   <si>
     <t>یک بیمار شکستگی دارد که در آن رادیوس خم شده اما جابجا نشده است و پوست سالم است. این نوع شکستگی به کدام یک از موارد زیر معروف است؟</t>
@@ -3493,9 +3379,6 @@
 با توجه به توضیحات بالا، گزینه صحیح [A] : بسته، ترکه سبز است.</t>
   </si>
   <si>
-    <t>D9</t>
-  </si>
-  <si>
     <t>لقاح تخمک توسط اسپرم در کدام یک از ساختارهای زیر اتفاق می افتد؟</t>
   </si>
   <si>
@@ -3526,9 +3409,6 @@
 بنابراین، پاسخ نهایی: **لوله فالوپ**.</t>
   </si>
   <si>
-    <t>Dx</t>
-  </si>
-  <si>
     <t>اکتودرم ایجاد می کند</t>
   </si>
   <si>
@@ -3586,9 +3466,6 @@
 پس پاسخ نهایی: **ب**: پروستات.</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
     <t>کدام یک از گزینه های زیر عبارت زیر را کامل می کند؟ "دریچه دهلیزی راست..."</t>
   </si>
   <si>
@@ -3670,9 +3547,6 @@
 3. **کولون سیگموئید (Sigmoid Colon)** بخشی از روده بزرگ است و نه روده کوچک.
 4. **گزینه D (کولون سیگموئید)** به همین دلیل نادرست است.
 5. **گزینه های A، B و C** یا به روده بزرگ مربوط می‌شوند (روده بزرگ صعودی، سکوم و ایلئوم، اما ایلئوم بخشی از روده کوچک است، بنابراین تنها گزینه صحیح **C: ایلئوم** می‌باشد.</t>
-  </si>
-  <si>
-    <t>E2</t>
   </si>
   <si>
     <t>در طول بلوک عصب آلوئولار تحتانی، سوزن به طور ایده آل عبور می کند</t>
@@ -3732,9 +3606,6 @@
 بنابراین، با توجه به توضیحات فوق، پاسخ صحیح **گزینه C: کم خونی خطرناک** است.</t>
   </si>
   <si>
-    <t>E3</t>
-  </si>
-  <si>
     <t>کدام یک از استخوان های زیر دارای فرآیندی است که به استخوان زیگوماتیک متصل می شود و قوس زیگوماتیک را تشکیل می دهد؟</t>
   </si>
   <si>
@@ -3759,9 +3630,6 @@
 ۳. **بررسی فرآیندهای اتصال:**  با دقت به فرآیندهای استخوان‌ها نگاه می‌کنیم. استخوان فک بالا (گزینه A) دارای فرآیندهای متعددی است که با سایر استخوان‌ها از جمله استخوان‌های جمجمه‌ای مانند تمپورال (گزینه B) و اسفنوئید (گزینه C) و پیشانی (گزینه D) در ارتباط است.
 4. **تأیید گزینه صحیح:**  از بین گزینه‌ها،  استخوان **تمپورال (B)**  به طور خاص دارای فرآیندی است که به استخوان زیگوماتیک متصل می‌شود و در تشکیل قوس زیگوماتیک نقش دارد.
 بنابراین، پاسخ صحیح **[B] استخوان تمپورال** است.</t>
-  </si>
-  <si>
-    <t>E4</t>
   </si>
   <si>
     <t>آکسون های پیش گانگلیونی پاراسمپاتیک با چه چیزی از CNS خارج می شوند؟</t>
@@ -3850,9 +3718,6 @@
 بنابراین، پاسخ صحیح **گزینه [C] : بویایی** است.</t>
   </si>
   <si>
-    <t>E5</t>
-  </si>
-  <si>
     <t>مراکز حیاتی در ساقه مغز کجا قرار دارند؟</t>
   </si>
   <si>
@@ -3990,9 +3855,6 @@
 - **پینه‌آل (گزینه [C])** : پینه‌آل یا غده پینه‌آل، یک مجموعه از غده‌های کوچک است که هورمون‌های جنسی را تنظیم می‌کند. این غده نقش مهمی در تنظیم سطح تستوسترون و استروژن دارد. با این حال، اگرچه بسیار مهم است، پینه‌آل بخشی از سیستم غدد درون‌ریز به شمار نمی‌رود.
 - **هیپوفیز (گزینه [D])** : هیپوفیز، به عنوان "رئیس غدد" شناخته می‌شود، یک غده درون‌ریز کوچک در پایه مغز است که هورمون‌های ترشح‌کننده را تولید می‌کند که سایر غده‌ها را تحریک یا مهار می‌کنند. هیپوفیز کنترل‌کننده اصلی سایر غدد درون‌ریز است و با ترشح هورمون‌های مختلف، عملکرد آنها را تنظیم می‌کند.
 بنابراین، با توجه به توضیحات بالا، پاسخ صحیح **گزینه [D] : هیپوفیز** است. هیپوفیز غده اصلی و تنظیم‌کننده سیستم غدد درون‌ریز است.</t>
-  </si>
-  <si>
-    <t>E6</t>
   </si>
   <si>
     <t>از دست دادن حس جسمانی در دو سوم قدامی زبان نشان دهنده آسیب به زبان است.</t>
@@ -4054,9 +3916,6 @@
 با توجه به این تحلیل، گزینه صحیح **[C] : مجرای ادرار** است، زیرا محل معمول و اصلی برای رشد گنوکوکی در مردان می‌باشد.</t>
   </si>
   <si>
-    <t>E7</t>
-  </si>
-  <si>
     <t>کدام یک از ساختارهای زیر باید در رادیوگرافی پانورامیک دندان قابل مشاهده باشد؟</t>
   </si>
   <si>
@@ -4084,9 +3943,6 @@
    * **گزینه C (کانال فک پایین، سینوس فک بالا و کام سخت):**  در رادیوگرافی پانورامیک، علاوه بر کانال فک پایین و سینوس ماگزیلاری،  سینوس فک بالا (سینوس متایودل)  و   کام سخت (محل اتصال فک بالا و پایین)   نیز به وضوح دیده می‌شوند.
    * **گزینه D (کانال فک پایین، سینوس فک بالا، کام سخت و قوس زیگوماتیک):**  گزینه D تمام ساختارهای گزینه C را شامل می‌شود و  علاوه بر آنها، قوس زیگوماتیک (قوس بالای چشم)  را نیز نشان می‌دهد که یک عنصر کلیدی دیگر در رادیوگرافی پانورامیک دندان است. 
 4. **انتخاب پاسخ:**  با توجه به اینکه رادیوگرافی پانورامیک یک تصویر جامع از دهان است،  گزینه **D**  که تمام ساختارهای مهم   (کانال فک پایین، سینوس فک بالا، کام سخت و قوس زیگوماتیک) را شامل می‌شود، پاسخ درست است.</t>
-  </si>
-  <si>
-    <t>E8</t>
   </si>
 </sst>
 </file>
@@ -4452,15 +4308,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4480,7 +4336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4500,7 +4356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4520,7 +4376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -4540,7 +4396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -4560,7 +4416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -4579,2779 +4435,2605 @@
       <c r="F6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
         <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
         <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
         <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
         <v>47</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
         <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
         <v>51</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
         <v>53</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>54</v>
       </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>56</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
         <v>57</v>
-      </c>
-      <c r="E13" t="s">
-        <v>58</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
         <v>59</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
         <v>61</v>
-      </c>
-      <c r="E14" t="s">
-        <v>62</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" t="s">
-        <v>65</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>70</v>
       </c>
-      <c r="E16" t="s">
+      <c r="B17" t="s">
         <v>71</v>
       </c>
-      <c r="F16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
         <v>72</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E17" t="s">
         <v>73</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" t="s">
-        <v>75</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
         <v>90</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>91</v>
       </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
         <v>92</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>93</v>
       </c>
-      <c r="F21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
+      <c r="B23" t="s">
         <v>95</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
         <v>96</v>
       </c>
-      <c r="C22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E23" t="s">
         <v>97</v>
-      </c>
-      <c r="E22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" t="s">
-        <v>103</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E25" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F26" t="s">
         <v>14</v>
       </c>
-      <c r="G26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F30" t="s">
         <v>23</v>
       </c>
-      <c r="G30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B31" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
         <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E32" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F32" t="s">
         <v>23</v>
       </c>
-      <c r="G32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B33" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E33" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E34" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
       </c>
-      <c r="G34" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B35" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E35" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C36" t="s">
         <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E36" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B37" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C37" t="s">
         <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E37" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B38" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E38" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B39" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C39" t="s">
         <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E39" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F39" t="s">
         <v>23</v>
       </c>
-      <c r="G39" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B40" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E40" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="F40" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B41" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C41" t="s">
         <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E41" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F41" t="s">
         <v>23</v>
       </c>
-      <c r="G41" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B42" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s">
         <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E42" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="F42" t="s">
         <v>23</v>
       </c>
-      <c r="G42" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B43" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C43" t="s">
         <v>23</v>
       </c>
       <c r="D43" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="E43" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="F43" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B44" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E44" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="F44" t="s">
         <v>14</v>
       </c>
-      <c r="G44" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B45" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="C45" t="s">
         <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="E45" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F45" t="s">
         <v>23</v>
       </c>
-      <c r="G45" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="B46" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C46" t="s">
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="E46" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="F46" t="s">
         <v>8</v>
       </c>
-      <c r="G46" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="B47" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C47" t="s">
         <v>23</v>
       </c>
       <c r="D47" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="E47" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="F47" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="B48" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="E48" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
       </c>
-      <c r="G48" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="B49" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C49" t="s">
         <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="E49" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="F49" t="s">
         <v>23</v>
       </c>
-      <c r="G49" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="B50" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="C50" t="s">
         <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="E50" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="F50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="B51" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="C51" t="s">
         <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="E51" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="F51" t="s">
         <v>23</v>
       </c>
-      <c r="G51" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="409.6">
+    </row>
+    <row r="52" spans="1:6" ht="409.6">
       <c r="A52" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="B52" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="E52" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="B53" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="C53" t="s">
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="E53" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="E54" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
       </c>
-      <c r="G54" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="B55" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="E55" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="F55" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="B56" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="E56" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="F56" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="B57" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="C57" t="s">
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="E57" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="B58" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="C58" t="s">
         <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="E58" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="F58" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="B59" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="C59" t="s">
         <v>23</v>
       </c>
       <c r="D59" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="E59" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="F59" t="s">
         <v>23</v>
       </c>
-      <c r="G59" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="B60" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E60" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="B61" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="E61" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="F61" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="B62" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="E62" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="B63" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="C63" t="s">
         <v>23</v>
       </c>
       <c r="D63" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="E63" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="F63" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="B64" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="E64" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
       </c>
-      <c r="G64" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="B65" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="C65" t="s">
         <v>23</v>
       </c>
       <c r="D65" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="E65" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="F65" t="s">
         <v>23</v>
       </c>
-      <c r="G65" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="B66" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="C66" t="s">
         <v>23</v>
       </c>
       <c r="D66" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="E66" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="F66" t="s">
         <v>23</v>
       </c>
-      <c r="G66" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="B67" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="E67" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="F67" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="B68" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C68" t="s">
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="E68" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="B69" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="C69" t="s">
         <v>23</v>
       </c>
       <c r="D69" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="E69" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="F69" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="B70" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="C70" t="s">
         <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="E70" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="F70" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="B71" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="E71" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="F71" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="B72" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="E72" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="F72" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="B73" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="C73" t="s">
         <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="E73" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="F73" t="s">
         <v>8</v>
       </c>
-      <c r="G73" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="B74" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="C74" t="s">
         <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="E74" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="F74" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="B75" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="C75" t="s">
         <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="E75" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="F75" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="B76" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="E76" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="F76" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="409.6">
+    <row r="77" spans="1:6" ht="409.6">
       <c r="A77" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="B77" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="C77" t="s">
         <v>23</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="E77" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="F77" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="B78" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="E78" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="F78" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="B79" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="C79" t="s">
         <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="E79" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="F79" t="s">
         <v>8</v>
       </c>
-      <c r="G79" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="B80" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="C80" t="s">
         <v>23</v>
       </c>
       <c r="D80" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="E80" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="F80" t="s">
         <v>23</v>
       </c>
-      <c r="G80" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="B81" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="C81" t="s">
         <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="E81" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="B82" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="E82" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="F82" t="s">
         <v>14</v>
       </c>
-      <c r="G82" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="B83" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="E83" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="F83" t="s">
         <v>14</v>
       </c>
-      <c r="G83" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="B84" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="C84" t="s">
         <v>23</v>
       </c>
       <c r="D84" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="E84" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="F84" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="B85" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="E85" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="F85" t="s">
         <v>14</v>
       </c>
-      <c r="G85" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="B86" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="E86" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="F86" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="B87" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="C87" t="s">
         <v>23</v>
       </c>
       <c r="D87" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="E87" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="F87" t="s">
         <v>23</v>
       </c>
-      <c r="G87" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="B88" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="C88" t="s">
         <v>23</v>
       </c>
       <c r="D88" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="E88" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="F88" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="B89" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="C89" t="s">
         <v>23</v>
       </c>
       <c r="D89" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="E89" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="B90" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="C90" t="s">
         <v>23</v>
       </c>
       <c r="D90" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="E90" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="F90" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="B91" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="C91" t="s">
         <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="E91" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="F91" t="s">
         <v>8</v>
       </c>
-      <c r="G91" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="B92" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="C92" t="s">
         <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="E92" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="F92" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="B93" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="E93" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="F93" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="B94" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="E94" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
       </c>
-      <c r="G94" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="B95" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="C95" t="s">
         <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="E95" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="B96" t="s">
-        <v>418</v>
+        <v>387</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="E96" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="F96" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="B97" t="s">
-        <v>422</v>
+        <v>391</v>
       </c>
       <c r="C97" t="s">
         <v>23</v>
       </c>
       <c r="D97" t="s">
-        <v>423</v>
+        <v>392</v>
       </c>
       <c r="E97" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="F97" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>425</v>
+        <v>394</v>
       </c>
       <c r="B98" t="s">
-        <v>426</v>
+        <v>395</v>
       </c>
       <c r="C98" t="s">
         <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>427</v>
+        <v>396</v>
       </c>
       <c r="E98" t="s">
-        <v>428</v>
+        <v>397</v>
       </c>
       <c r="F98" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>429</v>
+        <v>398</v>
       </c>
       <c r="B99" t="s">
-        <v>430</v>
+        <v>399</v>
       </c>
       <c r="C99" t="s">
         <v>23</v>
       </c>
       <c r="D99" t="s">
-        <v>431</v>
+        <v>400</v>
       </c>
       <c r="E99" t="s">
-        <v>432</v>
+        <v>401</v>
       </c>
       <c r="F99" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>433</v>
+        <v>402</v>
       </c>
       <c r="B100" t="s">
-        <v>434</v>
+        <v>403</v>
       </c>
       <c r="C100" t="s">
         <v>8</v>
       </c>
       <c r="D100" t="s">
-        <v>435</v>
+        <v>404</v>
       </c>
       <c r="E100" t="s">
-        <v>436</v>
+        <v>405</v>
       </c>
       <c r="F100" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>437</v>
+        <v>406</v>
       </c>
       <c r="B101" t="s">
-        <v>438</v>
+        <v>407</v>
       </c>
       <c r="C101" t="s">
         <v>23</v>
       </c>
       <c r="D101" t="s">
-        <v>439</v>
+        <v>408</v>
       </c>
       <c r="E101" t="s">
-        <v>440</v>
+        <v>409</v>
       </c>
       <c r="F101" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>441</v>
+        <v>410</v>
       </c>
       <c r="B102" t="s">
-        <v>442</v>
+        <v>411</v>
       </c>
       <c r="C102" t="s">
         <v>11</v>
       </c>
       <c r="D102" t="s">
-        <v>443</v>
+        <v>412</v>
       </c>
       <c r="E102" t="s">
-        <v>444</v>
+        <v>413</v>
       </c>
       <c r="F102" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
       <c r="B103" t="s">
-        <v>446</v>
+        <v>415</v>
       </c>
       <c r="C103" t="s">
         <v>11</v>
       </c>
       <c r="D103" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="E103" t="s">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="F103" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="B104" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="C104" t="s">
         <v>23</v>
       </c>
       <c r="D104" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="E104" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="F104" t="s">
         <v>23</v>
       </c>
-      <c r="G104" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
       <c r="B105" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>456</v>
+        <v>424</v>
       </c>
       <c r="E105" t="s">
-        <v>457</v>
+        <v>425</v>
       </c>
       <c r="F105" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
       <c r="B106" t="s">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="C106" t="s">
         <v>8</v>
       </c>
       <c r="D106" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="E106" t="s">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="F106" t="s">
         <v>8</v>
       </c>
-      <c r="G106" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="B107" t="s">
-        <v>464</v>
+        <v>431</v>
       </c>
       <c r="C107" t="s">
         <v>23</v>
       </c>
       <c r="D107" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="E107" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="F107" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
       <c r="B108" t="s">
-        <v>468</v>
+        <v>435</v>
       </c>
       <c r="C108" t="s">
         <v>23</v>
       </c>
       <c r="D108" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="E108" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
       <c r="F108" t="s">
         <v>23</v>
       </c>
-      <c r="G108" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="B109" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="C109" t="s">
         <v>11</v>
       </c>
       <c r="D109" t="s">
-        <v>474</v>
+        <v>440</v>
       </c>
       <c r="E109" t="s">
-        <v>475</v>
+        <v>441</v>
       </c>
       <c r="F109" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>476</v>
+        <v>442</v>
       </c>
       <c r="B110" t="s">
-        <v>477</v>
+        <v>443</v>
       </c>
       <c r="C110" t="s">
         <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>478</v>
+        <v>444</v>
       </c>
       <c r="E110" t="s">
-        <v>479</v>
+        <v>445</v>
       </c>
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>481</v>
+        <v>446</v>
       </c>
       <c r="B111" t="s">
-        <v>482</v>
+        <v>447</v>
       </c>
       <c r="C111" t="s">
         <v>8</v>
       </c>
       <c r="D111" t="s">
-        <v>483</v>
+        <v>448</v>
       </c>
       <c r="E111" t="s">
-        <v>484</v>
+        <v>449</v>
       </c>
       <c r="F111" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>485</v>
+        <v>450</v>
       </c>
       <c r="B112" t="s">
-        <v>486</v>
+        <v>451</v>
       </c>
       <c r="C112" t="s">
         <v>23</v>
       </c>
       <c r="D112" t="s">
-        <v>487</v>
+        <v>452</v>
       </c>
       <c r="E112" t="s">
-        <v>488</v>
+        <v>453</v>
       </c>
       <c r="F112" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>489</v>
+        <v>454</v>
       </c>
       <c r="B113" t="s">
-        <v>490</v>
+        <v>455</v>
       </c>
       <c r="C113" t="s">
         <v>23</v>
       </c>
       <c r="D113" t="s">
-        <v>491</v>
+        <v>456</v>
       </c>
       <c r="E113" t="s">
-        <v>492</v>
+        <v>457</v>
       </c>
       <c r="F113" t="s">
         <v>23</v>
       </c>
-      <c r="G113" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>494</v>
+        <v>458</v>
       </c>
       <c r="B114" t="s">
-        <v>495</v>
+        <v>459</v>
       </c>
       <c r="C114" t="s">
         <v>11</v>
       </c>
       <c r="D114" t="s">
-        <v>496</v>
+        <v>460</v>
       </c>
       <c r="E114" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>499</v>
+        <v>462</v>
       </c>
       <c r="B115" t="s">
-        <v>500</v>
+        <v>463</v>
       </c>
       <c r="C115" t="s">
         <v>8</v>
       </c>
       <c r="D115" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="E115" t="s">
-        <v>502</v>
+        <v>465</v>
       </c>
       <c r="F115" t="s">
         <v>8</v>
       </c>
-      <c r="G115" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>504</v>
+        <v>466</v>
       </c>
       <c r="B116" t="s">
-        <v>505</v>
+        <v>467</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
       </c>
       <c r="D116" t="s">
-        <v>506</v>
+        <v>468</v>
       </c>
       <c r="E116" t="s">
-        <v>507</v>
+        <v>469</v>
       </c>
       <c r="F116" t="s">
         <v>8</v>
       </c>
-      <c r="G116" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>509</v>
+        <v>470</v>
       </c>
       <c r="B117" t="s">
-        <v>510</v>
+        <v>471</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>511</v>
+        <v>472</v>
       </c>
       <c r="E117" t="s">
-        <v>512</v>
+        <v>473</v>
       </c>
       <c r="F117" t="s">
         <v>14</v>
       </c>
-      <c r="G117" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>514</v>
+        <v>474</v>
       </c>
       <c r="B118" t="s">
-        <v>515</v>
+        <v>475</v>
       </c>
       <c r="C118" t="s">
         <v>11</v>
       </c>
       <c r="D118" t="s">
-        <v>516</v>
+        <v>476</v>
       </c>
       <c r="E118" t="s">
-        <v>517</v>
+        <v>477</v>
       </c>
       <c r="F118" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>518</v>
+        <v>478</v>
       </c>
       <c r="B119" t="s">
-        <v>519</v>
+        <v>479</v>
       </c>
       <c r="C119" t="s">
         <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="E119" t="s">
-        <v>521</v>
+        <v>481</v>
       </c>
       <c r="F119" t="s">
         <v>14</v>
       </c>
-      <c r="G119" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>523</v>
+        <v>482</v>
       </c>
       <c r="B120" t="s">
-        <v>524</v>
+        <v>483</v>
       </c>
       <c r="C120" t="s">
         <v>14</v>
       </c>
       <c r="D120" t="s">
-        <v>525</v>
+        <v>484</v>
       </c>
       <c r="E120" t="s">
-        <v>526</v>
+        <v>485</v>
       </c>
       <c r="F120" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>527</v>
+        <v>486</v>
       </c>
       <c r="B121" t="s">
-        <v>528</v>
+        <v>487</v>
       </c>
       <c r="C121" t="s">
         <v>11</v>
       </c>
       <c r="D121" t="s">
-        <v>529</v>
+        <v>488</v>
       </c>
       <c r="E121" t="s">
-        <v>530</v>
+        <v>489</v>
       </c>
       <c r="F121" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>531</v>
+        <v>490</v>
       </c>
       <c r="B122" t="s">
-        <v>532</v>
+        <v>491</v>
       </c>
       <c r="C122" t="s">
         <v>23</v>
       </c>
       <c r="D122" t="s">
-        <v>533</v>
+        <v>492</v>
       </c>
       <c r="E122" t="s">
-        <v>534</v>
+        <v>493</v>
       </c>
       <c r="F122" t="s">
         <v>23</v>
       </c>
-      <c r="G122" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>536</v>
+        <v>494</v>
       </c>
       <c r="B123" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
       <c r="C123" t="s">
         <v>14</v>
       </c>
       <c r="D123" t="s">
-        <v>538</v>
+        <v>496</v>
       </c>
       <c r="E123" t="s">
-        <v>539</v>
+        <v>497</v>
       </c>
       <c r="F123" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>540</v>
+        <v>498</v>
       </c>
       <c r="B124" t="s">
-        <v>541</v>
+        <v>499</v>
       </c>
       <c r="C124" t="s">
         <v>23</v>
       </c>
       <c r="D124" t="s">
-        <v>542</v>
+        <v>500</v>
       </c>
       <c r="E124" t="s">
-        <v>543</v>
+        <v>501</v>
       </c>
       <c r="F124" t="s">
         <v>23</v>
       </c>
-      <c r="G124" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>545</v>
+        <v>502</v>
       </c>
       <c r="B125" t="s">
-        <v>546</v>
+        <v>503</v>
       </c>
       <c r="C125" t="s">
         <v>14</v>
       </c>
       <c r="D125" t="s">
-        <v>547</v>
+        <v>504</v>
       </c>
       <c r="E125" t="s">
-        <v>548</v>
+        <v>505</v>
       </c>
       <c r="F125" t="s">
         <v>14</v>
       </c>
-      <c r="G125" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>550</v>
+        <v>506</v>
       </c>
       <c r="B126" t="s">
-        <v>551</v>
+        <v>507</v>
       </c>
       <c r="C126" t="s">
         <v>11</v>
       </c>
       <c r="D126" t="s">
-        <v>552</v>
+        <v>508</v>
       </c>
       <c r="E126" t="s">
-        <v>553</v>
+        <v>509</v>
       </c>
       <c r="F126" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>554</v>
+        <v>510</v>
       </c>
       <c r="B127" t="s">
-        <v>555</v>
+        <v>511</v>
       </c>
       <c r="C127" t="s">
         <v>14</v>
       </c>
       <c r="D127" t="s">
-        <v>556</v>
+        <v>512</v>
       </c>
       <c r="E127" t="s">
-        <v>557</v>
+        <v>513</v>
       </c>
       <c r="F127" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>558</v>
+        <v>514</v>
       </c>
       <c r="B128" t="s">
-        <v>559</v>
+        <v>515</v>
       </c>
       <c r="C128" t="s">
         <v>23</v>
       </c>
       <c r="D128" t="s">
-        <v>560</v>
+        <v>516</v>
       </c>
       <c r="E128" t="s">
-        <v>561</v>
+        <v>517</v>
       </c>
       <c r="F128" t="s">
         <v>23</v>
       </c>
-      <c r="G128" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>563</v>
+        <v>518</v>
       </c>
       <c r="B129" t="s">
-        <v>564</v>
+        <v>519</v>
       </c>
       <c r="C129" t="s">
         <v>23</v>
       </c>
       <c r="D129" t="s">
-        <v>565</v>
+        <v>520</v>
       </c>
       <c r="E129" t="s">
-        <v>566</v>
+        <v>521</v>
       </c>
       <c r="F129" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>567</v>
+        <v>522</v>
       </c>
       <c r="B130" t="s">
-        <v>568</v>
+        <v>523</v>
       </c>
       <c r="C130" t="s">
         <v>8</v>
       </c>
       <c r="D130" t="s">
-        <v>569</v>
+        <v>524</v>
       </c>
       <c r="E130" t="s">
-        <v>570</v>
+        <v>525</v>
       </c>
       <c r="F130" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>571</v>
+        <v>526</v>
       </c>
       <c r="B131" t="s">
-        <v>572</v>
+        <v>527</v>
       </c>
       <c r="C131" t="s">
         <v>8</v>
       </c>
       <c r="D131" t="s">
-        <v>573</v>
+        <v>528</v>
       </c>
       <c r="E131" t="s">
-        <v>574</v>
+        <v>529</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>575</v>
+        <v>530</v>
       </c>
       <c r="B132" t="s">
-        <v>576</v>
+        <v>531</v>
       </c>
       <c r="C132" t="s">
         <v>8</v>
       </c>
       <c r="D132" t="s">
-        <v>577</v>
+        <v>532</v>
       </c>
       <c r="E132" t="s">
-        <v>578</v>
+        <v>533</v>
       </c>
       <c r="F132" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>579</v>
+        <v>534</v>
       </c>
       <c r="B133" t="s">
-        <v>580</v>
+        <v>535</v>
       </c>
       <c r="C133" t="s">
         <v>11</v>
       </c>
       <c r="D133" t="s">
-        <v>581</v>
+        <v>536</v>
       </c>
       <c r="E133" t="s">
-        <v>582</v>
+        <v>537</v>
       </c>
       <c r="F133" t="s">
         <v>11</v>
       </c>
-      <c r="G133" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>584</v>
+        <v>538</v>
       </c>
       <c r="B134" t="s">
-        <v>585</v>
+        <v>539</v>
       </c>
       <c r="C134" t="s">
         <v>8</v>
       </c>
       <c r="D134" t="s">
-        <v>586</v>
+        <v>540</v>
       </c>
       <c r="E134" t="s">
-        <v>587</v>
+        <v>541</v>
       </c>
       <c r="F134" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>588</v>
+        <v>542</v>
       </c>
       <c r="B135" t="s">
-        <v>589</v>
+        <v>543</v>
       </c>
       <c r="C135" t="s">
         <v>23</v>
       </c>
       <c r="D135" t="s">
-        <v>590</v>
+        <v>544</v>
       </c>
       <c r="E135" t="s">
-        <v>591</v>
+        <v>545</v>
       </c>
       <c r="F135" t="s">
         <v>23</v>
       </c>
-      <c r="G135" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>593</v>
+        <v>546</v>
       </c>
       <c r="B136" t="s">
-        <v>594</v>
+        <v>547</v>
       </c>
       <c r="C136" t="s">
         <v>11</v>
       </c>
       <c r="D136" t="s">
-        <v>595</v>
+        <v>548</v>
       </c>
       <c r="E136" t="s">
-        <v>596</v>
+        <v>549</v>
       </c>
       <c r="F136" t="s">
         <v>11</v>
-      </c>
-      <c r="G136" t="s">
-        <v>597</v>
       </c>
     </row>
   </sheetData>
